--- a/src/test/data/convert.xlsx
+++ b/src/test/data/convert.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="数値型" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,14 @@
     <sheet name="リスト型" sheetId="4" r:id="rId4"/>
     <sheet name="ブール型" sheetId="5" r:id="rId5"/>
     <sheet name="列挙型" sheetId="7" r:id="rId6"/>
-    <sheet name="リンク" sheetId="6" r:id="rId7"/>
+    <sheet name="リンク型" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="276">
   <si>
     <t>数値型のテスト</t>
     <rPh sb="0" eb="2">
@@ -921,6 +921,10 @@
     <rPh sb="3" eb="4">
       <t>カタ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1358,6 +1362,388 @@
     <rPh sb="2" eb="3">
       <t>カタ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブール型（初期値、書式）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Excelの型(false)</t>
+    <rPh sb="6" eb="7">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Excelの型(true)</t>
+    <rPh sb="6" eb="7">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字列（no）</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字列（yes）</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不正な文字</t>
+    <rPh sb="0" eb="2">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> def</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空白の文字</t>
+    <rPh sb="0" eb="2">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yes   </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">yes   </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>boolean型(パターン)</t>
+    <rPh sb="7" eb="8">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Boolean型(パターン)</t>
+    <rPh sb="7" eb="8">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NOT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>真</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>偽</t>
+    <rPh sb="0" eb="1">
+      <t>ギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ○ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RIGHT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> RIGHT  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正しい値</t>
+    <rPh sb="0" eb="1">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Red</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Refer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>存在しない値</t>
+    <rPh sb="0" eb="2">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Blue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Remove</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小文字</t>
+    <rPh sb="0" eb="3">
+      <t>コモジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yellow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>edit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空白</t>
+    <rPh sb="0" eb="2">
+      <t>クウハク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yellow  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Edit </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参照</t>
+    <rPh sb="0" eb="2">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 編集 </t>
+    <rPh sb="1" eb="3">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CellLink</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンク型のテスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンク型（アノテーションなし）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://www.google.co.jp/</t>
+  </si>
+  <si>
+    <t>http://www.google.co.jp/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URL（ラベルが異なる）</t>
+    <rPh sb="8" eb="9">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URL（ラベルが同じ）</t>
+    <rPh sb="8" eb="9">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Googleサイト</t>
+  </si>
+  <si>
+    <t>文字列</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hoge@google.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルパス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.\convert.xlsx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セルへのリンク</t>
+  </si>
+  <si>
+    <t>セルへのリンク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>列挙型（初期値、書式）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  http://www.google.co.jp/  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  http://www.google.co.jp/  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  空白を含むリンク  </t>
+  </si>
+  <si>
+    <t>空白の文字列</t>
+    <rPh sb="0" eb="2">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不正なリンク＋ラベルに空白を含む</t>
+    <rPh sb="0" eb="2">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POIでリンクを取得すると「http://invalid.url」と固定値となる。</t>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>コテイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンク型（初期値、書式）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セルへのリンク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>URL（ラベルが空白）</t>
+    <rPh sb="8" eb="10">
+      <t>クウハク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1381,7 +1767,7 @@
     <numFmt numFmtId="188" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="189" formatCode="[DBNum3][$-411]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1420,6 +1806,21 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1479,10 +1880,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1547,8 +1949,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3514,24 +3920,24 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>140</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -3542,7 +3948,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -3550,16 +3956,16 @@
         <v>2</v>
       </c>
       <c r="B7" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>146</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" x14ac:dyDescent="0.15">
@@ -3567,16 +3973,16 @@
         <v>3</v>
       </c>
       <c r="B8" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -3593,7 +3999,7 @@
         <v>12.34</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -3610,32 +4016,32 @@
         <v>42006.156319444446</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -3647,7 +4053,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -3655,19 +4061,19 @@
         <v>2</v>
       </c>
       <c r="B16" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" s="20" t="s">
         <v>146</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="48" x14ac:dyDescent="0.15">
@@ -3675,19 +4081,19 @@
         <v>3</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C17" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3700,7 +4106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -3721,7 +4127,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="33" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -3729,25 +4135,25 @@
         <v>15</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G4" s="37" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -3761,7 +4167,7 @@
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
       <c r="H5" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
@@ -3787,7 +4193,7 @@
         <v>123</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -3795,25 +4201,25 @@
         <v>3</v>
       </c>
       <c r="B7" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="H7" s="36" t="s">
         <v>173</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="H7" s="36" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -3821,25 +4227,25 @@
         <v>4</v>
       </c>
       <c r="B8" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="H8" s="36" t="s">
         <v>175</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -3847,25 +4253,25 @@
         <v>5</v>
       </c>
       <c r="B9" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="H9" s="36" t="s">
         <v>177</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="G9" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -3873,33 +4279,33 @@
         <v>6</v>
       </c>
       <c r="B10" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="I10" t="s">
         <v>182</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>183</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>183</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="G10" s="41" t="s">
-        <v>183</v>
-      </c>
-      <c r="H10" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="I10" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="33" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -3907,25 +4313,25 @@
         <v>15</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
@@ -3939,7 +4345,7 @@
       <c r="F15" s="36"/>
       <c r="G15" s="36"/>
       <c r="H15" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -3965,7 +4371,7 @@
         <v>123</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="27" x14ac:dyDescent="0.15">
@@ -3973,25 +4379,25 @@
         <v>3</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C17" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="D17" s="42" t="s">
-        <v>185</v>
-      </c>
       <c r="E17" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="F17" s="42" t="s">
-        <v>185</v>
-      </c>
       <c r="G17" s="40" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="54" x14ac:dyDescent="0.15">
@@ -3999,25 +4405,25 @@
         <v>4</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D18" s="43" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E18" s="43" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F18" s="43" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G18" s="43" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
@@ -4025,25 +4431,25 @@
         <v>5</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C19" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="D19" s="43" t="s">
-        <v>189</v>
-      </c>
       <c r="E19" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="F19" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="F19" s="43" t="s">
-        <v>189</v>
-      </c>
       <c r="G19" s="42" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="27" x14ac:dyDescent="0.15">
@@ -4051,25 +4457,25 @@
         <v>6</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C20" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="D20" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="D20" s="45" t="s">
-        <v>191</v>
-      </c>
       <c r="E20" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="F20" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="F20" s="45" t="s">
-        <v>191</v>
-      </c>
       <c r="G20" s="44" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H20" s="36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -4080,43 +4486,48 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.125" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="13.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
-        <v>194</v>
+        <v>15</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="29">
         <v>1</v>
       </c>
@@ -4126,53 +4537,246 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="29">
         <v>2</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="29">
         <v>3</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="29">
         <v>4</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B9" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="29">
         <v>5</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="29">
         <v>6</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="29">
         <v>7</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="B12" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="29">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="29">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="29">
+        <v>3</v>
+      </c>
+      <c r="B19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="29">
+        <v>4</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="29">
+        <v>5</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="29">
+        <v>6</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="29">
+        <v>7</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>214</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4182,10 +4786,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -4193,28 +4797,29 @@
     <col min="1" max="1" width="6.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.25" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="14.75" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
         <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>13</v>
@@ -4234,49 +4839,142 @@
       <c r="A7" s="29">
         <v>2</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="29">
         <v>3</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="29">
         <v>4</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="29">
         <v>5</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="29">
-        <v>6</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="29">
-        <v>7</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="29">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="29">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="29">
+        <v>3</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="29">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="29">
+        <v>5</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>240</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4286,15 +4984,397 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="22.625" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="21.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="33" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="33" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="39">
+        <v>1</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="39">
+        <v>2</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="39">
+        <v>3</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="39">
+        <v>4</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="39">
+        <v>5</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="39">
+        <v>6</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>260</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>260</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="39">
+        <v>7</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>261</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>261</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="39">
+        <v>8</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>266</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>266</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="E12" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="39">
+        <v>9</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>264</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="39">
+        <v>10</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="39">
+        <v>11</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="33" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="39">
+        <v>1</v>
+      </c>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="39">
+        <v>2</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>252</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="39">
+        <v>3</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="39">
+        <v>4</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="39">
+        <v>5</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="39">
+        <v>6</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>260</v>
+      </c>
+      <c r="C24" s="46" t="s">
+        <v>260</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="39">
+        <v>7</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>261</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>261</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="39">
+        <v>8</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>266</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>266</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="39">
+        <v>9</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>264</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="39">
+        <v>10</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="C28" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="39">
+        <v>11</v>
+      </c>
+      <c r="B29" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="C29" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>214</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId3"/>
+    <hyperlink ref="C7" r:id="rId4"/>
+    <hyperlink ref="B9" r:id="rId5"/>
+    <hyperlink ref="C9" r:id="rId6"/>
+    <hyperlink ref="B10" r:id="rId7"/>
+    <hyperlink ref="C10" r:id="rId8"/>
+    <hyperlink ref="B11" location="リンク型!A1" display="セルへのリンク"/>
+    <hyperlink ref="C11" location="リンク型!A1" display="セルへのリンク"/>
+    <hyperlink ref="B12" r:id="rId9"/>
+    <hyperlink ref="C12" r:id="rId10"/>
+    <hyperlink ref="B20" r:id="rId11"/>
+    <hyperlink ref="C20" r:id="rId12"/>
+    <hyperlink ref="B21" r:id="rId13"/>
+    <hyperlink ref="C21" r:id="rId14"/>
+    <hyperlink ref="B23" r:id="rId15"/>
+    <hyperlink ref="C23" r:id="rId16"/>
+    <hyperlink ref="B24" r:id="rId17"/>
+    <hyperlink ref="C24" r:id="rId18"/>
+    <hyperlink ref="B25" location="リンク型!A1" display="セルへのリンク"/>
+    <hyperlink ref="C25" location="リンク型!A1" display="セルへのリンク"/>
+    <hyperlink ref="B26" r:id="rId19"/>
+    <hyperlink ref="C26" r:id="rId20"/>
+    <hyperlink ref="B14" r:id="rId21"/>
+    <hyperlink ref="C14" r:id="rId22"/>
+    <hyperlink ref="B28" r:id="rId23"/>
+    <hyperlink ref="C28" r:id="rId24"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/data/convert.xlsx
+++ b/src/test/data/convert.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="数値型" sheetId="1" r:id="rId1"/>
@@ -1162,13 +1162,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>項目が3つ</t>
-    <rPh sb="0" eb="2">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>abc,def</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1744,6 +1737,13 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目が2つ</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4106,8 +4106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4201,25 +4201,25 @@
         <v>3</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>173</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -4227,25 +4227,25 @@
         <v>4</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -4253,25 +4253,25 @@
         <v>5</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G9" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -4279,33 +4279,33 @@
         <v>6</v>
       </c>
       <c r="B10" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="C10" s="41" t="s">
-        <v>184</v>
-      </c>
       <c r="D10" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="E10" s="41" t="s">
-        <v>184</v>
-      </c>
       <c r="F10" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="G10" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="G10" s="41" t="s">
-        <v>184</v>
-      </c>
       <c r="H10" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="I10" t="s">
         <v>181</v>
-      </c>
-      <c r="I10" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -4379,25 +4379,25 @@
         <v>3</v>
       </c>
       <c r="B17" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="C17" s="40" t="s">
-        <v>187</v>
-      </c>
       <c r="D17" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="E17" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="E17" s="40" t="s">
-        <v>187</v>
-      </c>
       <c r="F17" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="G17" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="G17" s="40" t="s">
-        <v>187</v>
-      </c>
       <c r="H17" s="36" t="s">
-        <v>173</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="54" x14ac:dyDescent="0.15">
@@ -4405,25 +4405,25 @@
         <v>4</v>
       </c>
       <c r="B18" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="H18" s="36" t="s">
         <v>188</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="E18" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="G18" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="H18" s="36" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
@@ -4431,25 +4431,25 @@
         <v>5</v>
       </c>
       <c r="B19" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="C19" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="C19" s="42" t="s">
-        <v>191</v>
-      </c>
       <c r="D19" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="E19" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="E19" s="42" t="s">
-        <v>191</v>
-      </c>
       <c r="F19" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="G19" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="G19" s="42" t="s">
-        <v>191</v>
-      </c>
       <c r="H19" s="36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="27" x14ac:dyDescent="0.15">
@@ -4457,25 +4457,25 @@
         <v>6</v>
       </c>
       <c r="B20" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" s="44" t="s">
         <v>192</v>
       </c>
-      <c r="C20" s="44" t="s">
-        <v>193</v>
-      </c>
       <c r="D20" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="E20" s="44" t="s">
         <v>192</v>
       </c>
-      <c r="E20" s="44" t="s">
-        <v>193</v>
-      </c>
       <c r="F20" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="G20" s="44" t="s">
         <v>192</v>
       </c>
-      <c r="G20" s="44" t="s">
-        <v>193</v>
-      </c>
       <c r="H20" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -4505,12 +4505,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -4518,10 +4518,10 @@
         <v>15</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>196</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>197</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>13</v>
@@ -4548,7 +4548,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -4570,13 +4570,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -4587,10 +4587,10 @@
         <v>138</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -4601,10 +4601,10 @@
         <v>85</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -4612,18 +4612,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>216</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -4631,16 +4631,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>197</v>
-      </c>
       <c r="D16" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>217</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>218</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>13</v>
@@ -4669,13 +4669,13 @@
         <v>1</v>
       </c>
       <c r="D18" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="E18" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="E18" s="20" t="s">
-        <v>220</v>
-      </c>
       <c r="F18" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -4689,13 +4689,13 @@
         <v>0</v>
       </c>
       <c r="D19" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="E19" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="E19" s="20" t="s">
-        <v>222</v>
-      </c>
       <c r="F19" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -4703,19 +4703,19 @@
         <v>4</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
@@ -4726,16 +4726,16 @@
         <v>138</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
@@ -4746,16 +4746,16 @@
         <v>85</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D22" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="E22" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="E22" s="20" t="s">
-        <v>227</v>
-      </c>
       <c r="F22" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
@@ -4763,19 +4763,19 @@
         <v>7</v>
       </c>
       <c r="B23" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="C23" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="C23" s="20" t="s">
-        <v>216</v>
-      </c>
       <c r="D23" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -4803,23 +4803,23 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>198</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>199</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>13</v>
@@ -4840,13 +4840,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>233</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -4854,13 +4854,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>236</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -4868,13 +4868,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>239</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -4882,29 +4882,29 @@
         <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>242</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B14" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>198</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>199</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>13</v>
@@ -4925,13 +4925,13 @@
         <v>2</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
@@ -4939,13 +4939,13 @@
         <v>3</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
@@ -4953,13 +4953,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
@@ -4967,13 +4967,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -4986,7 +4986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -4999,23 +4999,23 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>247</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>248</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>13</v>
@@ -5036,13 +5036,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -5050,13 +5050,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -5064,13 +5064,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -5078,13 +5078,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -5092,13 +5092,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -5106,13 +5106,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="46" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>260</v>
+      </c>
+      <c r="D11" s="36" t="s">
         <v>261</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>261</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -5120,16 +5120,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D12" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="E12" t="s">
         <v>268</v>
-      </c>
-      <c r="E12" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -5137,13 +5137,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -5151,13 +5151,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="D14" s="36" t="s">
         <v>272</v>
-      </c>
-      <c r="C14" s="46" t="s">
-        <v>272</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -5165,29 +5165,29 @@
         <v>11</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B18" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>247</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>248</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>13</v>
@@ -5208,13 +5208,13 @@
         <v>2</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
@@ -5222,13 +5222,13 @@
         <v>3</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
@@ -5236,13 +5236,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
@@ -5250,13 +5250,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C23" s="46" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
@@ -5264,13 +5264,13 @@
         <v>6</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C24" s="46" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
@@ -5278,13 +5278,13 @@
         <v>7</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C25" s="46" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
@@ -5292,13 +5292,13 @@
         <v>8</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C26" s="47" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
@@ -5306,13 +5306,13 @@
         <v>9</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
@@ -5320,13 +5320,13 @@
         <v>10</v>
       </c>
       <c r="B28" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="C28" s="46" t="s">
+        <v>274</v>
+      </c>
+      <c r="D28" s="36" t="s">
         <v>272</v>
-      </c>
-      <c r="C28" s="46" t="s">
-        <v>275</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
@@ -5334,13 +5334,13 @@
         <v>11</v>
       </c>
       <c r="B29" s="48" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/data/convert.xlsx
+++ b/src/test/data/convert.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="数値型" sheetId="1" r:id="rId1"/>
@@ -1884,7 +1884,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1952,6 +1952,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2256,8 +2257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2826,8 +2827,12 @@
       <c r="E25" s="26">
         <v>9.9999999999999901E+307</v>
       </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
+      <c r="F25" s="49">
+        <v>9.9999999999999901E+307</v>
+      </c>
+      <c r="G25" s="49">
+        <v>9.9999999999999901E+307</v>
+      </c>
       <c r="H25" s="3" t="s">
         <v>87</v>
       </c>
@@ -2851,8 +2856,12 @@
       <c r="E26" s="26">
         <v>-9.9999999999999901E+307</v>
       </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="21"/>
+      <c r="F26" s="49">
+        <v>-9.9999999999999901E+307</v>
+      </c>
+      <c r="G26" s="49">
+        <v>-9.9999999999999901E+307</v>
+      </c>
       <c r="H26" s="3" t="s">
         <v>88</v>
       </c>
@@ -4106,8 +4115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/src/test/data/convert.xlsx
+++ b/src/test/data/convert.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="数値型" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="278">
   <si>
     <t>数値型のテスト</t>
     <rPh sb="0" eb="2">
@@ -1743,6 +1743,17 @@
     <t>項目が2つ</t>
     <rPh sb="0" eb="2">
       <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Calendarクラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ver1.0追加。</t>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2257,7 +2268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -3624,31 +3635,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
-    <col min="2" max="5" width="26.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="26.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.75" style="2" customWidth="1"/>
+    <col min="4" max="6" width="26.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C5" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
         <v>15</v>
       </c>
@@ -3656,19 +3672,22 @@
         <v>95</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="E6" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="F6" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="G6" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="29">
         <v>1</v>
       </c>
@@ -3676,11 +3695,12 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="29">
         <v>2</v>
       </c>
@@ -3696,11 +3716,14 @@
       <c r="E8" s="28">
         <v>42006.156319444446</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="28">
+        <v>42006.156319444446</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="29">
         <v>3</v>
       </c>
@@ -3708,19 +3731,22 @@
         <v>102</v>
       </c>
       <c r="C9" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="E9" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="F9" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="29">
         <v>4</v>
       </c>
@@ -3728,19 +3754,22 @@
         <v>106</v>
       </c>
       <c r="C10" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="E10" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="F10" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="29">
         <v>5</v>
       </c>
@@ -3756,11 +3785,14 @@
       <c r="E11" s="30">
         <v>42006.156319444446</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="30">
+        <v>42006.156319444446</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="29">
         <v>6</v>
       </c>
@@ -3776,11 +3808,14 @@
       <c r="E12" s="31">
         <v>42006.156319444446</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="31">
+        <v>42006.156319444446</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="29">
         <v>7</v>
       </c>
@@ -3800,32 +3835,41 @@
         <f>DATE(2015,1,2)+TIME(3,45,6)</f>
         <v>42006.156319444446</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="27">
+        <f>DATE(2015,1,2)+TIME(3,45,6)</f>
+        <v>42006.156319444446</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="29"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="29"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G15" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C18" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="15" t="s">
         <v>15</v>
       </c>
@@ -3833,19 +3877,22 @@
         <v>95</v>
       </c>
       <c r="C19" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="E19" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="F19" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="G19" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="29">
         <v>1</v>
       </c>
@@ -3853,11 +3900,12 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="3"/>
+      <c r="G20" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="29">
         <v>2</v>
       </c>
@@ -3865,19 +3913,22 @@
         <v>102</v>
       </c>
       <c r="C21" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="E21" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="F21" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="29">
         <v>3</v>
       </c>
@@ -3885,15 +3936,18 @@
         <v>121</v>
       </c>
       <c r="C22" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="E22" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="F22" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>120</v>
       </c>
     </row>

--- a/src/test/data/convert.xlsx
+++ b/src/test/data/convert.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="数値型" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="292">
   <si>
     <t>数値型のテスト</t>
     <rPh sb="0" eb="2">
@@ -1755,6 +1755,83 @@
     <rPh sb="6" eb="8">
       <t>ツイカ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リスト型（任意の型）</t>
+    <rPh sb="3" eb="4">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Array（Date型）</t>
+    <rPh sb="10" eb="11">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Set（Date型）</t>
+    <rPh sb="8" eb="9">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>List（Date型）</t>
+    <rPh sb="9" eb="10">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2016年3月15日;2016年3月16日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2016年3月15日
+2016年3月16日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2016年3月15日;;2016年3月16日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2016年3月15日,,2016年3月16日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  2016年3月15日
+ 2016年3月16日 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2016年3月15日 ; 2016年3月16日 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2016年3月15日 ,  2016年3月16日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2016年3月15日
+2016年3月16日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2016年3月15日,2016年3月16日</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1895,7 +1972,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1964,6 +2041,10 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="184" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -3637,7 +3718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -4167,16 +4248,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="7" width="18.125" customWidth="1"/>
@@ -4538,6 +4619,124 @@
         <v>192</v>
       </c>
       <c r="H20" s="36" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="33" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="39">
+        <v>1</v>
+      </c>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="39">
+        <v>2</v>
+      </c>
+      <c r="B26" s="50">
+        <v>42444</v>
+      </c>
+      <c r="C26" s="50">
+        <v>42444</v>
+      </c>
+      <c r="D26" s="50">
+        <v>42444</v>
+      </c>
+      <c r="E26" s="36" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A27" s="39">
+        <v>3</v>
+      </c>
+      <c r="B27" s="51" t="s">
+        <v>290</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>291</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+      <c r="A28" s="39">
+        <v>4</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="E28" s="36" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="39">
+        <v>5</v>
+      </c>
+      <c r="B29" s="51" t="s">
+        <v>284</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="E29" s="36" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A30" s="39">
+        <v>6</v>
+      </c>
+      <c r="B30" s="51" t="s">
+        <v>287</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>289</v>
+      </c>
+      <c r="E30" s="36" t="s">
         <v>180</v>
       </c>
     </row>

--- a/src/test/data/convert.xlsx
+++ b/src/test/data/convert.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="数値型" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="322">
   <si>
     <t>数値型のテスト</t>
     <rPh sb="0" eb="2">
@@ -1834,12 +1834,234 @@
     <t>2016年3月15日,2016年3月16日</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ブール型（数式）</t>
+    <rPh sb="3" eb="4">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>スウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>boolean型</t>
+    <rPh sb="7" eb="8">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空文字</t>
+    <rPh sb="0" eb="3">
+      <t>カラモジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Excelの関数・数式</t>
+    <rPh sb="6" eb="8">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>スウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字列型（数式）</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>スウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   AbCdeF   </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   こんにちは   </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数式指定</t>
+    <rPh sb="0" eb="2">
+      <t>スウシキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日時型（数式）</t>
+    <rPh sb="0" eb="2">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>スウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ver1.5追加。</t>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始日時</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空文字</t>
+    <rPh sb="0" eb="3">
+      <t>カラモジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日時の差</t>
+    <rPh sb="0" eb="2">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了日時</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>列挙型（数式）</t>
+    <rPh sb="4" eb="6">
+      <t>スウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Enum型（英字）2</t>
+    <rPh sb="4" eb="5">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>エイジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Enum型（英字）1</t>
+    <rPh sb="4" eb="5">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>エイジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リスト型（数式）</t>
+    <rPh sb="3" eb="4">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>スウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>List（数式）</t>
+    <rPh sb="5" eb="7">
+      <t>スウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Array（数式）</t>
+    <rPh sb="6" eb="8">
+      <t>スウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Set（数式）</t>
+    <rPh sb="4" eb="6">
+      <t>スウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/dir1/index.html;/dir2/sample.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンク型（数式）</t>
+    <rPh sb="5" eb="7">
+      <t>スウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://www.google.co.jp/</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="14">
+  <numFmts count="17">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
@@ -1854,6 +2076,9 @@
     <numFmt numFmtId="187" formatCode="[DBNum3][$-411]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;\ h&quot;時&quot;mm&quot;分&quot;ss&quot;秒&quot;"/>
     <numFmt numFmtId="188" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="189" formatCode="[DBNum3][$-411]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="190" formatCode="#,##0;&quot;▲ &quot;#,##0"/>
+    <numFmt numFmtId="191" formatCode="#,##0_ "/>
+    <numFmt numFmtId="192" formatCode="0;&quot;▲ &quot;0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -1972,7 +2197,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2044,6 +2269,14 @@
     <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="191" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="192" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2347,10 +2580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="E51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2363,7 +2596,9 @@
     <col min="6" max="6" width="18.75" style="2" customWidth="1"/>
     <col min="7" max="7" width="23.25" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="9" max="9" width="19.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.75" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
@@ -2387,28 +2622,28 @@
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="15" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3520,7 +3755,7 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A60" s="3">
+      <c r="A60" s="29">
         <v>1</v>
       </c>
       <c r="B60" s="20"/>
@@ -3534,7 +3769,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A61" s="3">
+      <c r="A61" s="29">
         <v>2</v>
       </c>
       <c r="B61" s="20" t="s">
@@ -3560,7 +3795,7 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A62" s="3">
+      <c r="A62" s="29">
         <v>3</v>
       </c>
       <c r="B62" s="20" t="s">
@@ -3586,7 +3821,7 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A63" s="3">
+      <c r="A63" s="29">
         <v>4</v>
       </c>
       <c r="B63" s="20" t="s">
@@ -3608,7 +3843,7 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A64" s="3">
+      <c r="A64" s="29">
         <v>5</v>
       </c>
       <c r="B64" s="23" t="s">
@@ -3632,8 +3867,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A65" s="3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A65" s="29">
         <v>6</v>
       </c>
       <c r="B65" s="20" t="s">
@@ -3654,8 +3889,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A66" s="3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A66" s="29">
         <v>7</v>
       </c>
       <c r="B66" s="23" t="s">
@@ -3679,8 +3914,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A67" s="3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A67" s="29">
         <v>8</v>
       </c>
       <c r="B67" s="25" t="s">
@@ -3706,6 +3941,139 @@
       </c>
       <c r="I67" s="2" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A70" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A71" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I71" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J71" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A72" s="29">
+        <v>1</v>
+      </c>
+      <c r="B72" s="32"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="53"/>
+      <c r="E72" s="52"/>
+      <c r="F72" s="54"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="32"/>
+      <c r="I72" s="32"/>
+      <c r="J72" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A73" s="29">
+        <v>2</v>
+      </c>
+      <c r="B73" s="55">
+        <f>INT(VALUE($J73))</f>
+        <v>12</v>
+      </c>
+      <c r="C73" s="55">
+        <f>INT(VALUE($J73))</f>
+        <v>12</v>
+      </c>
+      <c r="D73" s="55">
+        <f t="shared" ref="D73:E74" si="0">INT(VALUE($J73))</f>
+        <v>12</v>
+      </c>
+      <c r="E73" s="55">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F73" s="32">
+        <f t="shared" ref="F73:H74" si="1">POWER(VALUE($J73),2)</f>
+        <v>152.2756</v>
+      </c>
+      <c r="G73" s="32">
+        <f t="shared" si="1"/>
+        <v>152.2756</v>
+      </c>
+      <c r="H73" s="32">
+        <f t="shared" si="1"/>
+        <v>152.2756</v>
+      </c>
+      <c r="I73" s="55">
+        <f>INT(VALUE($J73))</f>
+        <v>12</v>
+      </c>
+      <c r="J73" s="20">
+        <v>12.34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A74" s="29">
+        <v>3</v>
+      </c>
+      <c r="B74" s="55">
+        <f>INT(VALUE($J74))</f>
+        <v>-4</v>
+      </c>
+      <c r="C74" s="55">
+        <f>INT(VALUE($J74))</f>
+        <v>-4</v>
+      </c>
+      <c r="D74" s="55">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="E74" s="55">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="F74" s="32">
+        <f t="shared" si="1"/>
+        <v>11.902500000000002</v>
+      </c>
+      <c r="G74" s="32">
+        <f t="shared" si="1"/>
+        <v>11.902500000000002</v>
+      </c>
+      <c r="H74" s="32">
+        <f t="shared" si="1"/>
+        <v>11.902500000000002</v>
+      </c>
+      <c r="I74" s="55">
+        <f>INT(VALUE($J74))</f>
+        <v>-4</v>
+      </c>
+      <c r="J74" s="20">
+        <v>-3.45</v>
       </c>
     </row>
   </sheetData>
@@ -3716,10 +4084,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -3729,7 +4097,8 @@
     <col min="3" max="3" width="26.75" style="2" customWidth="1"/>
     <col min="4" max="6" width="26.75" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="8" max="8" width="16" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
@@ -3942,7 +4311,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>114</v>
       </c>
@@ -3950,7 +4319,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="15" t="s">
         <v>15</v>
       </c>
@@ -3973,7 +4342,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="29">
         <v>1</v>
       </c>
@@ -3986,7 +4355,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="29">
         <v>2</v>
       </c>
@@ -4009,7 +4378,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="29">
         <v>3</v>
       </c>
@@ -4030,6 +4399,92 @@
       </c>
       <c r="G22" s="3" t="s">
         <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" s="57">
+        <v>1</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" s="57">
+        <v>2</v>
+      </c>
+      <c r="B28" s="28">
+        <f>$H28-$G28</f>
+        <v>1487.9611111111153</v>
+      </c>
+      <c r="C28" s="28">
+        <f>$H28-$G28</f>
+        <v>1487.9611111111153</v>
+      </c>
+      <c r="D28" s="28">
+        <f>$H28-$G28</f>
+        <v>1487.9611111111153</v>
+      </c>
+      <c r="E28" s="28">
+        <f>$H28-$G28</f>
+        <v>1487.9611111111153</v>
+      </c>
+      <c r="F28" s="28">
+        <f>$H28-$G28</f>
+        <v>1487.9611111111153</v>
+      </c>
+      <c r="G28" s="56">
+        <v>41122.438888888886</v>
+      </c>
+      <c r="H28" s="27">
+        <v>42610.400000000001</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -4040,10 +4495,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -4240,6 +4695,86 @@
         <v>163</v>
       </c>
     </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="29">
+        <v>1</v>
+      </c>
+      <c r="B22" s="3" t="str">
+        <f>UPPER(TRIM(E22))</f>
+        <v/>
+      </c>
+      <c r="C22" s="3" t="str">
+        <f>RIGHT(TRIM(E22))</f>
+        <v/>
+      </c>
+      <c r="D22" s="3" t="str">
+        <f>LEFT(TRIM(E22))</f>
+        <v/>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="29">
+        <v>2</v>
+      </c>
+      <c r="B23" s="3" t="str">
+        <f>UPPER(TRIM(E23))</f>
+        <v>ABCDEF</v>
+      </c>
+      <c r="C23" s="3" t="str">
+        <f>RIGHT(TRIM(E23))</f>
+        <v>F</v>
+      </c>
+      <c r="D23" s="3" t="str">
+        <f>LEFT(TRIM(E23))</f>
+        <v>A</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="29">
+        <v>3</v>
+      </c>
+      <c r="B24" s="3" t="str">
+        <f>UPPER(TRIM(E24))</f>
+        <v>こんにちは</v>
+      </c>
+      <c r="C24" s="3" t="str">
+        <f>RIGHT(TRIM(E24))</f>
+        <v>は</v>
+      </c>
+      <c r="D24" s="3" t="str">
+        <f>LEFT(TRIM(E24))</f>
+        <v>こ</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4248,10 +4783,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4740,6 +5275,68 @@
         <v>180</v>
       </c>
     </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="33" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>316</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="39">
+        <v>1</v>
+      </c>
+      <c r="B35" s="36" t="str">
+        <f>$E35</f>
+        <v>;</v>
+      </c>
+      <c r="C35" s="36" t="str">
+        <f t="shared" ref="C35:D36" si="0">$E35</f>
+        <v>;</v>
+      </c>
+      <c r="D35" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>;</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="39">
+        <v>2</v>
+      </c>
+      <c r="B36" s="36" t="str">
+        <f t="shared" ref="B36" si="1">$E36</f>
+        <v>/dir1/index.html;/dir2/sample.html</v>
+      </c>
+      <c r="C36" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>/dir1/index.html;/dir2/sample.html</v>
+      </c>
+      <c r="D36" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>/dir1/index.html;/dir2/sample.html</v>
+      </c>
+      <c r="E36" s="36" t="s">
+        <v>318</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4748,17 +5345,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="13.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.25" style="2" customWidth="1"/>
     <col min="5" max="5" width="16.125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="2" customWidth="1"/>
@@ -5040,6 +5637,67 @@
         <v>213</v>
       </c>
     </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="29">
+        <v>1</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="29">
+        <v>2</v>
+      </c>
+      <c r="B29" s="3" t="b">
+        <f>MOD(A29,2)=0</f>
+        <v>1</v>
+      </c>
+      <c r="C29" s="3" t="str">
+        <f>IF(MOD(A29,2)=0, "偶数", "奇数")</f>
+        <v>偶数</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="29">
+        <v>3</v>
+      </c>
+      <c r="B30" s="3" t="b">
+        <f>MOD(A30,2)=0</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="3" t="str">
+        <f>IF(MOD(A30,2)=0, "偶数", "奇数")</f>
+        <v>奇数</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5048,10 +5706,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A22" sqref="A22:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -5078,10 +5736,10 @@
         <v>194</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>197</v>
+        <v>311</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>198</v>
+        <v>310</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>13</v>
@@ -5238,18 +5896,67 @@
         <v>239</v>
       </c>
     </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="29">
+        <v>1</v>
+      </c>
+      <c r="B24" s="3" t="str">
+        <f>IF($D24="R","Red","")</f>
+        <v/>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="29">
+        <v>2</v>
+      </c>
+      <c r="B25" s="3" t="str">
+        <f>IF($D25="R","Red","")</f>
+        <v>Red</v>
+      </c>
+      <c r="C25" s="3" t="str">
+        <f>IF($D25="R","参照","")</f>
+        <v>参照</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5603,6 +6310,51 @@
       </c>
       <c r="D29" s="36" t="s">
         <v>213</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="33" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="39">
+        <v>1</v>
+      </c>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="40" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="39">
+        <v>2</v>
+      </c>
+      <c r="B35" s="46" t="str">
+        <f>HYPERLINK($D35)</f>
+        <v>http://www.google.co.jp/</v>
+      </c>
+      <c r="C35" s="46" t="str">
+        <f>HYPERLINK($D35,"リンク"&amp;A35)</f>
+        <v>リンク2</v>
+      </c>
+      <c r="D35" s="47" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -5636,6 +6388,9 @@
     <hyperlink ref="C14" r:id="rId22"/>
     <hyperlink ref="B28" r:id="rId23"/>
     <hyperlink ref="C28" r:id="rId24"/>
+    <hyperlink ref="D35" r:id="rId25"/>
+    <hyperlink ref="B35" r:id="rId26" display="http://www.google.co.jp/"/>
+    <hyperlink ref="C35" r:id="rId27" display="http://www.google.co.jp/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/data/convert.xlsx
+++ b/src/test/data/convert.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="数値型" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="ブール型" sheetId="5" r:id="rId5"/>
     <sheet name="列挙型" sheetId="7" r:id="rId6"/>
     <sheet name="リンク型" sheetId="6" r:id="rId7"/>
+    <sheet name="JSR310" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="327">
   <si>
     <t>数値型のテスト</t>
     <rPh sb="0" eb="2">
@@ -2054,6 +2055,29 @@
   </si>
   <si>
     <t>http://www.google.co.jp/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JSR-310のテスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Java8から追加された、Date and Time APIのテスト。</t>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LocalDateTimeクラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LocalDateクラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LocalTimeクラス</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2582,8 +2606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView topLeftCell="E51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70:J74"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -4086,8 +4110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:I28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E33:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -5955,7 +5979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -6394,4 +6418,324 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
+    <col min="2" max="4" width="26.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="29">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="29">
+        <v>2</v>
+      </c>
+      <c r="B8" s="28">
+        <v>42006.156319444446</v>
+      </c>
+      <c r="C8" s="28">
+        <v>42006.156319444446</v>
+      </c>
+      <c r="D8" s="28">
+        <v>42006.156319444446</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="29">
+        <v>3</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="29">
+        <v>4</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="29">
+        <v>5</v>
+      </c>
+      <c r="B11" s="30">
+        <v>42006.156319444446</v>
+      </c>
+      <c r="C11" s="30">
+        <v>42006.156319444446</v>
+      </c>
+      <c r="D11" s="30">
+        <v>42006.156319444446</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="29">
+        <v>6</v>
+      </c>
+      <c r="B12" s="31">
+        <v>42006.156319444446</v>
+      </c>
+      <c r="C12" s="31">
+        <v>42006.156319444446</v>
+      </c>
+      <c r="D12" s="31">
+        <v>42006.156319444446</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="29">
+        <v>7</v>
+      </c>
+      <c r="B13" s="27">
+        <f>DATE(2015,1,2)+TIME(3,45,6)</f>
+        <v>42006.156319444446</v>
+      </c>
+      <c r="C13" s="27">
+        <f>DATE(2015,1,2)+TIME(3,45,6)</f>
+        <v>42006.156319444446</v>
+      </c>
+      <c r="D13" s="27">
+        <f>DATE(2015,1,2)+TIME(3,45,6)</f>
+        <v>42006.156319444446</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="29"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="29"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="29">
+        <v>1</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="29">
+        <v>2</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="29">
+        <v>3</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="57">
+        <v>1</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="57">
+        <v>2</v>
+      </c>
+      <c r="B28" s="28">
+        <f>$F28-$E28</f>
+        <v>1487.9611111111153</v>
+      </c>
+      <c r="C28" s="28">
+        <f>$F28-$E28</f>
+        <v>1487.9611111111153</v>
+      </c>
+      <c r="D28" s="28">
+        <f>$F28-$E28</f>
+        <v>1487.9611111111153</v>
+      </c>
+      <c r="E28" s="56">
+        <v>41122.438888888886</v>
+      </c>
+      <c r="F28" s="27">
+        <v>42610.400000000001</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/test/data/convert.xlsx
+++ b/src/test/data/convert.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="数値型" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,12 @@
     <sheet name="リンク型" sheetId="6" r:id="rId7"/>
     <sheet name="JSR310" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="329">
   <si>
     <t>数値型のテスト</t>
     <rPh sb="0" eb="2">
@@ -2080,11 +2080,31 @@
     <t>LocalTimeクラス</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>abc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不正な値(数値以外)</t>
+    <rPh sb="0" eb="2">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="17">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
@@ -2313,12 +2333,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2360,7 +2383,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2393,9 +2416,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2428,6 +2468,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2604,10 +2661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -3652,7 +3709,7 @@
       </c>
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="13" t="s">
         <v>15</v>
       </c>
@@ -3666,7 +3723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
         <v>1</v>
       </c>
@@ -3676,7 +3733,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
         <v>2</v>
       </c>
@@ -3690,7 +3747,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
         <v>3</v>
       </c>
@@ -3704,7 +3761,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
         <v>4</v>
       </c>
@@ -3718,7 +3775,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
         <v>5</v>
       </c>
@@ -3732,7 +3789,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
         <v>6</v>
       </c>
@@ -3746,357 +3803,371 @@
         <v>126</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58" s="1" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56" s="3">
+        <v>7</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="1"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A59" s="14" t="s">
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A60" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B60" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C60" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D59" s="14" t="s">
+      <c r="D60" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E59" s="14" t="s">
+      <c r="E60" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F59" s="14" t="s">
+      <c r="F60" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G59" s="14" t="s">
+      <c r="G60" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H59" s="14" t="s">
+      <c r="H60" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A60" s="29">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61" s="29">
         <v>1</v>
       </c>
-      <c r="B60" s="20"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="3" t="s">
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A61" s="29">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62" s="29">
         <v>2</v>
       </c>
-      <c r="B61" s="20" t="s">
+      <c r="B62" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C62" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D61" s="20" t="s">
+      <c r="D62" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E61" s="20" t="s">
+      <c r="E62" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="F61" s="20" t="s">
+      <c r="F62" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="G61" s="20" t="s">
+      <c r="G62" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="H61" s="3" t="s">
+      <c r="H62" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A62" s="29">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" s="29">
         <v>3</v>
       </c>
-      <c r="B62" s="20" t="s">
+      <c r="B63" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="C63" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="D62" s="20" t="s">
+      <c r="D63" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E62" s="20" t="s">
+      <c r="E63" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="F62" s="20" t="s">
+      <c r="F63" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="G62" s="20" t="s">
+      <c r="G63" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="H63" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A63" s="29">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64" s="29">
         <v>4</v>
       </c>
-      <c r="B63" s="20" t="s">
+      <c r="B64" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C64" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D63" s="20" t="s">
+      <c r="D64" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="E63" s="20" t="s">
+      <c r="E64" s="20" t="s">
         <v>81</v>
-      </c>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A64" s="29">
-        <v>5</v>
-      </c>
-      <c r="B64" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="C64" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D64" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="E64" s="23" t="s">
-        <v>82</v>
       </c>
       <c r="F64" s="20"/>
       <c r="G64" s="20"/>
       <c r="H64" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65" s="29">
-        <v>6</v>
-      </c>
-      <c r="B65" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="C65" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D65" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="E65" s="20" t="s">
-        <v>83</v>
+        <v>5</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E65" s="23" t="s">
+        <v>82</v>
       </c>
       <c r="F65" s="20"/>
-      <c r="G65" s="21"/>
+      <c r="G65" s="20"/>
       <c r="H65" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66" s="29">
-        <v>7</v>
-      </c>
-      <c r="B66" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="C66" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D66" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E66" s="23" t="s">
-        <v>84</v>
+        <v>6</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>83</v>
       </c>
       <c r="F66" s="20"/>
       <c r="G66" s="21"/>
       <c r="H66" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67" s="29">
-        <v>8</v>
-      </c>
-      <c r="B67" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="C67" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D67" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="E67" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="F67" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="G67" s="25" t="s">
-        <v>85</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D67" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E67" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F67" s="20"/>
+      <c r="G67" s="21"/>
       <c r="H67" s="3" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A70" s="1" t="s">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A68" s="29">
+        <v>8</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D68" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E68" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F68" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="G68" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A71" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A71" s="15" t="s">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A72" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B72" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C72" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="15" t="s">
+      <c r="D72" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E71" s="15" t="s">
+      <c r="E72" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F71" s="15" t="s">
+      <c r="F72" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G71" s="15" t="s">
+      <c r="G72" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H71" s="13" t="s">
+      <c r="H72" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="I71" s="13" t="s">
+      <c r="I72" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="J71" s="15" t="s">
+      <c r="J72" s="15" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A72" s="29">
-        <v>1</v>
-      </c>
-      <c r="B72" s="32"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="53"/>
-      <c r="E72" s="52"/>
-      <c r="F72" s="54"/>
-      <c r="G72" s="32"/>
-      <c r="H72" s="32"/>
-      <c r="I72" s="32"/>
-      <c r="J72" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73" s="29">
+        <v>1</v>
+      </c>
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="53"/>
+      <c r="E73" s="52"/>
+      <c r="F73" s="54"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="32"/>
+      <c r="J73" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A74" s="29">
         <v>2</v>
       </c>
-      <c r="B73" s="55">
-        <f>INT(VALUE($J73))</f>
+      <c r="B74" s="55">
+        <f>INT(VALUE($J74))</f>
         <v>12</v>
       </c>
-      <c r="C73" s="55">
-        <f>INT(VALUE($J73))</f>
+      <c r="C74" s="55">
+        <f>INT(VALUE($J74))</f>
         <v>12</v>
       </c>
-      <c r="D73" s="55">
-        <f t="shared" ref="D73:E74" si="0">INT(VALUE($J73))</f>
+      <c r="D74" s="55">
+        <f t="shared" ref="D74:E75" si="0">INT(VALUE($J74))</f>
         <v>12</v>
       </c>
-      <c r="E73" s="55">
+      <c r="E74" s="55">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F73" s="32">
-        <f t="shared" ref="F73:H74" si="1">POWER(VALUE($J73),2)</f>
+      <c r="F74" s="32">
+        <f t="shared" ref="F74:H75" si="1">POWER(VALUE($J74),2)</f>
         <v>152.2756</v>
       </c>
-      <c r="G73" s="32">
+      <c r="G74" s="32">
         <f t="shared" si="1"/>
         <v>152.2756</v>
       </c>
-      <c r="H73" s="32">
+      <c r="H74" s="32">
         <f t="shared" si="1"/>
         <v>152.2756</v>
       </c>
-      <c r="I73" s="55">
-        <f>INT(VALUE($J73))</f>
+      <c r="I74" s="55">
+        <f>INT(VALUE($J74))</f>
         <v>12</v>
       </c>
-      <c r="J73" s="20">
+      <c r="J74" s="20">
         <v>12.34</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A74" s="29">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A75" s="29">
         <v>3</v>
       </c>
-      <c r="B74" s="55">
-        <f>INT(VALUE($J74))</f>
+      <c r="B75" s="55">
+        <f>INT(VALUE($J75))</f>
         <v>-4</v>
       </c>
-      <c r="C74" s="55">
-        <f>INT(VALUE($J74))</f>
+      <c r="C75" s="55">
+        <f>INT(VALUE($J75))</f>
         <v>-4</v>
       </c>
-      <c r="D74" s="55">
+      <c r="D75" s="55">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="E74" s="55">
+      <c r="E75" s="55">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="F74" s="32">
+      <c r="F75" s="32">
         <f t="shared" si="1"/>
         <v>11.902500000000002</v>
       </c>
-      <c r="G74" s="32">
+      <c r="G75" s="32">
         <f t="shared" si="1"/>
         <v>11.902500000000002</v>
       </c>
-      <c r="H74" s="32">
+      <c r="H75" s="32">
         <f t="shared" si="1"/>
         <v>11.902500000000002</v>
       </c>
-      <c r="I74" s="55">
-        <f>INT(VALUE($J74))</f>
+      <c r="I75" s="55">
+        <f>INT(VALUE($J75))</f>
         <v>-4</v>
       </c>
-      <c r="J74" s="20">
+      <c r="J75" s="20">
         <v>-3.45</v>
       </c>
     </row>
@@ -4110,8 +4181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E33:E34"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -4809,8 +4880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4884,7 +4955,7 @@
         <v>123</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>85</v>
+        <v>327</v>
       </c>
       <c r="E6" s="36">
         <v>123</v>
@@ -5372,7 +5443,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -5733,7 +5804,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:D25"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -5980,7 +6051,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6424,8 +6495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>

--- a/src/test/data/convert.xlsx
+++ b/src/test/data/convert.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="数値型" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="列挙型" sheetId="7" r:id="rId6"/>
     <sheet name="リンク型" sheetId="6" r:id="rId7"/>
     <sheet name="JSR310" sheetId="8" r:id="rId8"/>
+    <sheet name="独自" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="333">
   <si>
     <t>数値型のテスト</t>
     <rPh sb="0" eb="2">
@@ -2099,6 +2100,44 @@
       <t>イガイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>独自のConverterのテスト</t>
+    <rPh sb="0" eb="2">
+      <t>ドクジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>独自の書式1</t>
+    <rPh sb="0" eb="2">
+      <t>ドクジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TODOリスト
+- 部屋の片付け
+- 買い物</t>
+    <rPh sb="10" eb="12">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カタヅ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>モノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>独自の書式2</t>
   </si>
 </sst>
 </file>
@@ -2241,7 +2280,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2321,6 +2360,15 @@
     <xf numFmtId="22" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2663,7 +2711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
@@ -6495,7 +6543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -6809,4 +6857,44 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="33" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B4" s="60" t="s">
+        <v>330</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="60" t="s">
+        <v>332</v>
+      </c>
+      <c r="C5" s="58"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>